--- a/01_Linear/Nachtfliegen_04_Transportation.xlsx
+++ b/01_Linear/Nachtfliegen_04_Transportation.xlsx
@@ -2,26 +2,127 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756E73EE-1BF1-5A4C-A383-9054667D6C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73219D44-83F2-E04A-B13D-39D4425CE34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31340" windowHeight="19560" activeTab="3" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32840" windowHeight="19580" activeTab="8" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Problem" sheetId="3" r:id="rId2"/>
     <sheet name="01" sheetId="2" r:id="rId3"/>
     <sheet name="01b" sheetId="18" r:id="rId4"/>
-    <sheet name="01_Z" sheetId="17" r:id="rId5"/>
-    <sheet name="vlookup" sheetId="7" r:id="rId6"/>
+    <sheet name="01c" sheetId="17" r:id="rId5"/>
+    <sheet name="01d" sheetId="19" r:id="rId6"/>
+    <sheet name="01long" sheetId="20" r:id="rId7"/>
+    <sheet name="vlookup" sheetId="7" r:id="rId8"/>
+    <sheet name="Problem2" sheetId="21" r:id="rId9"/>
+    <sheet name="02" sheetId="22" r:id="rId10"/>
+    <sheet name="02long" sheetId="23" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="quads">vlookup!$B$2:$E$6</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'01long'!$J$16:$O$16</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'02'!$C$10:$E$11</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'02long'!$C$10:$E$11</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'01long'!$P$13:$P$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'02'!$C$12:$E$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'02long'!$C$12:$E$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'01long'!$P$8:$P$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'02'!$F$10:$F$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="10" hidden="1">'02long'!$F$10:$F$11</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'01long'!$P$5</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'02'!$F$5</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'02long'!$F$5</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'01long'!$R$13:$R$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">'02'!$C$14:$E$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">'02long'!$C$14:$E$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'01long'!$R$8:$R$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'02'!$H$10:$H$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="10" hidden="1">'02long'!$H$10:$H$11</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
   <si>
     <t>Challenge:</t>
   </si>
@@ -119,21 +220,6 @@
     <t>Nachtfliegen_03</t>
   </si>
   <si>
-    <t>Titanium weighs 4 grams, has 10 strength, 10 flexibility, and 100 shine.</t>
-  </si>
-  <si>
-    <t>Steel weighs 13 grams, has 60 strength, 25 flexibility, and 50 shine.</t>
-  </si>
-  <si>
-    <t>Aluminum weighs 12 grams, has 50 strength, 20 flexibility, and 20 shine.</t>
-  </si>
-  <si>
-    <t>QX should have at least 1000 shine, 1500 flexibility, and 2000 strength.</t>
-  </si>
-  <si>
-    <t>How much of each metal should we use in order to minimize weight?</t>
-  </si>
-  <si>
     <t>=VLOOKUP(B8,quads,2,FALSE)</t>
   </si>
   <si>
@@ -264,6 +350,39 @@
   </si>
   <si>
     <t>How to Ship 1 from Houston to Omaha</t>
+  </si>
+  <si>
+    <t>"Long" format</t>
+  </si>
+  <si>
+    <t>From:</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>On Hand Inventory</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Midland</t>
+  </si>
+  <si>
+    <t>San Angelo</t>
+  </si>
+  <si>
+    <t>Abilene</t>
+  </si>
+  <si>
+    <t>Azle</t>
+  </si>
+  <si>
+    <t>Shipping</t>
   </si>
 </sst>
 </file>
@@ -273,10 +392,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,13 +418,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -344,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,35 +532,67 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -648,6 +798,388 @@
               <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Austin  – Omaha $500	Austin  – Tulsa $700</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4733A6-0538-4746-B906-5248E378BB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27709" y="26239"/>
+          <a:ext cx="5222497" cy="2199534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Nachtfliegen enterprises is coming to West Texas and needs the most cost effective way to get their products (rubber bands for quadcopter motors) to new cities from their new distribution centers.  Help them decide how much to ship along each route to minimize shipping costs.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Midland has 90 on hand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>San</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Angelo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> has 150.  We need to ship all of them.   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abilene needs 60,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Azle needs 80, and Austin needs 100.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use Solver to minimize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> shipping costs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.  Route costs are as follows:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Midland – Abilene $80	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>San</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Angelo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> – Abilene $60</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Midland -  Azle    $30	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>San</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Angelo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> – Azle    $40</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Midland – Austin  $50	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>San</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Angelo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> – Austin  $70</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -970,6 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF7CFD-36EB-B946-8904-E54727B0DCE3}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
@@ -980,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1012,97 +1545,97 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,12 +1643,12 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1124,8 +1657,705 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7BEC82-E37E-6145-8880-6330BE427D26}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="33">
+        <v>80</v>
+      </c>
+      <c r="D5" s="33">
+        <v>30</v>
+      </c>
+      <c r="E5" s="33">
+        <v>50</v>
+      </c>
+      <c r="F5" s="31">
+        <f>SUMPRODUCT(C5:E6,C10:E11)</f>
+        <v>12000</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="33">
+        <v>60</v>
+      </c>
+      <c r="D6" s="33">
+        <v>40</v>
+      </c>
+      <c r="E6" s="33">
+        <v>70</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>90</v>
+      </c>
+      <c r="F10" s="28">
+        <f>SUM(C10:E10)</f>
+        <v>90</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="32">
+        <v>90</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="30">
+        <v>60</v>
+      </c>
+      <c r="D11" s="30">
+        <v>80</v>
+      </c>
+      <c r="E11" s="30">
+        <v>10</v>
+      </c>
+      <c r="F11" s="28">
+        <f>SUM(C11:E11)</f>
+        <v>150</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="32">
+        <v>150</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="28">
+        <f>SUM(C10:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" ref="D12:E12" si="0">SUM(D10:D11)</f>
+        <v>80</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="32">
+        <v>60</v>
+      </c>
+      <c r="D14" s="32">
+        <v>80</v>
+      </c>
+      <c r="E14" s="32">
+        <v>100</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED8581F-6362-4840-BE8C-AB9CF9EEA1E7}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="33">
+        <v>80</v>
+      </c>
+      <c r="D5" s="33">
+        <v>30</v>
+      </c>
+      <c r="E5" s="33">
+        <v>50</v>
+      </c>
+      <c r="F5" s="31">
+        <f>SUMPRODUCT(C5:E6,C10:E11)</f>
+        <v>12000</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="33">
+        <v>60</v>
+      </c>
+      <c r="D6" s="33">
+        <v>40</v>
+      </c>
+      <c r="E6" s="33">
+        <v>70</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>90</v>
+      </c>
+      <c r="F10" s="28">
+        <f>SUM(C10:E10)</f>
+        <v>90</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="32">
+        <v>90</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="30">
+        <v>60</v>
+      </c>
+      <c r="D11" s="30">
+        <v>80</v>
+      </c>
+      <c r="E11" s="30">
+        <v>10</v>
+      </c>
+      <c r="F11" s="28">
+        <f>SUM(C11:E11)</f>
+        <v>150</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="32">
+        <v>150</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="28">
+        <f>SUM(C10:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" ref="D12:E12" si="0">SUM(D10:D11)</f>
+        <v>80</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="32">
+        <v>60</v>
+      </c>
+      <c r="D14" s="32">
+        <v>80</v>
+      </c>
+      <c r="E14" s="32">
+        <v>100</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD44AB-9FF3-8748-A8BE-D9A144FAA072}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
@@ -1145,6 +2375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FB4494-BB38-7944-8CA2-6884F9F40CCC}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
@@ -1165,228 +2396,228 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18">
+        <v>800</v>
+      </c>
+      <c r="D5" s="18">
+        <v>600</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20" t="s">
+      <c r="C6" s="18">
+        <v>300</v>
+      </c>
+      <c r="D6" s="18">
+        <v>400</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="19">
-        <v>800</v>
-      </c>
-      <c r="D5" s="19">
-        <v>600</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="C7" s="18">
+        <v>500</v>
+      </c>
+      <c r="D7" s="18">
+        <v>700</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="19">
-        <v>300</v>
-      </c>
-      <c r="D6" s="19">
-        <v>400</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="19">
-        <v>500</v>
-      </c>
-      <c r="D7" s="19">
-        <v>700</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1396,9 +2627,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA0188-A464-594F-94E2-E79D7C0E9442}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1416,253 +2648,253 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18">
+        <v>800</v>
+      </c>
+      <c r="D5" s="18">
+        <v>600</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20" t="s">
+      <c r="C6" s="18">
+        <v>300</v>
+      </c>
+      <c r="D6" s="18">
+        <v>400</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="19">
-        <v>800</v>
-      </c>
-      <c r="D5" s="19">
-        <v>600</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="19">
-        <v>300</v>
-      </c>
-      <c r="D6" s="19">
-        <v>400</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>500</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>700</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1671,10 +2903,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979AA9DA-B635-8341-8244-034A1E2B6982}">
-  <dimension ref="A1:I16"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,198 +2922,183 @@
     <col min="8" max="8" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7">
+        <v>800</v>
+      </c>
+      <c r="D5" s="7">
+        <v>600</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="8">
-        <v>800</v>
-      </c>
-      <c r="D5" s="8">
-        <v>600</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>300</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>400</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>SUMPRODUCT(C5:D7,C10:D12)</f>
         <v>119000</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="8">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7">
         <v>500</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>700</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="10">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>100</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>SUM(C10:D10)</f>
         <v>100</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9">
         <v>30</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>50</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" ref="E11:E12" si="0">SUM(C11:D11)</f>
         <v>80</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="10">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="11">
+      <c r="F12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10">
         <f>SUM(C10:C12)</f>
         <v>90</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f>SUM(D10:D12)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="12">
         <v>90</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,7 +3106,736 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA451F5-0288-744E-80E9-140960FD9558}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="14" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7">
+        <v>800</v>
+      </c>
+      <c r="D5" s="7">
+        <v>600</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>300</v>
+      </c>
+      <c r="D6" s="7">
+        <v>400</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUMPRODUCT(C5:D7,C10:D12)</f>
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7">
+        <v>500</v>
+      </c>
+      <c r="D7" s="7">
+        <v>700</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="I8" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10">
+        <f>SUM(C10:D10)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12">
+        <v>100</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E12" si="0">SUM(C11:D11)</f>
+        <v>80</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="12">
+        <v>60</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10">
+        <f>SUM(C10:C12)</f>
+        <v>90</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D10:D12)</f>
+        <v>150</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="12">
+        <v>90</v>
+      </c>
+      <c r="D15" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="I16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ED7C8B-D9C9-6447-BE5B-8CCD4076A5E6}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7">
+        <v>800</v>
+      </c>
+      <c r="D5" s="7">
+        <v>600</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="26">
+        <v>800</v>
+      </c>
+      <c r="K5" s="26">
+        <v>600</v>
+      </c>
+      <c r="L5" s="26">
+        <v>300</v>
+      </c>
+      <c r="M5" s="26">
+        <v>400</v>
+      </c>
+      <c r="N5" s="26">
+        <v>500</v>
+      </c>
+      <c r="O5" s="26">
+        <v>700</v>
+      </c>
+      <c r="P5" s="27">
+        <f>SUMPRODUCT(J5:O5,$J$16:$O$16)</f>
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>300</v>
+      </c>
+      <c r="D6" s="7">
+        <v>400</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUMPRODUCT(C5:D7,C10:D12)</f>
+        <v>119000</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7">
+        <v>500</v>
+      </c>
+      <c r="D7" s="7">
+        <v>700</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="I8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="1">
+        <f t="shared" ref="P8:P10" si="0">SUMPRODUCT(J8:O8,$J$16:$O$16)</f>
+        <v>100</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24">
+        <v>1</v>
+      </c>
+      <c r="M9" s="24">
+        <v>1</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10">
+        <f>SUM(C10:D10)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12">
+        <v>100</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24">
+        <v>1</v>
+      </c>
+      <c r="O10" s="24">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E12" si="1">SUM(C11:D11)</f>
+        <v>80</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="12">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="12">
+        <v>60</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10">
+        <f>SUM(C10:C12)</f>
+        <v>90</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D10:D12)</f>
+        <v>150</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24">
+        <v>1</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24">
+        <v>1</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="1">
+        <f t="shared" ref="P13:P14" si="2">SUMPRODUCT(J13:O13,$J$16:$O$16)</f>
+        <v>90</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24">
+        <v>1</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="12">
+        <v>90</v>
+      </c>
+      <c r="D15" s="12">
+        <v>150</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="I16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <v>100</v>
+      </c>
+      <c r="L16" s="23">
+        <v>30</v>
+      </c>
+      <c r="M16" s="23">
+        <v>50</v>
+      </c>
+      <c r="N16" s="23">
+        <v>60</v>
+      </c>
+      <c r="O16" s="23">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C354B7E-590A-8548-B457-7EB6020E920E}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
@@ -1998,8 +3945,8 @@
         <f t="shared" ref="C8:C14" si="0">VLOOKUP(B8,quads,2,FALSE)</f>
         <v>QuadOne</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2065,4 +4012,26 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE2212-413B-904F-9B44-ED1EA2CA7944}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_Linear/Nachtfliegen_04_Transportation.xlsx
+++ b/01_Linear/Nachtfliegen_04_Transportation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73219D44-83F2-E04A-B13D-39D4425CE34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA5DFA-77C8-534D-9933-936F31F6014C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32840" windowHeight="19580" activeTab="8" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30220" windowHeight="18260" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -24,39 +24,120 @@
     <sheet name="Problem2" sheetId="21" r:id="rId9"/>
     <sheet name="02" sheetId="22" r:id="rId10"/>
     <sheet name="02long" sheetId="23" r:id="rId11"/>
+    <sheet name="DistributionCenters" sheetId="25" r:id="rId12"/>
+    <sheet name="03" sheetId="26" r:id="rId13"/>
+    <sheet name="03long" sheetId="27" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="coin_cuttype" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="coin_cuttype" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="coin_dualtol" localSheetId="9" hidden="1">0.0000001</definedName>
+    <definedName name="coin_dualtol" localSheetId="12" hidden="1">0.0000001</definedName>
+    <definedName name="coin_heurs" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="coin_heurs" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="coin_integerpresolve" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="coin_integerpresolve" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="coin_presolve1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="coin_presolve1" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="coin_primaltol" localSheetId="9" hidden="1">0.0000001</definedName>
+    <definedName name="coin_primaltol" localSheetId="12" hidden="1">0.0000001</definedName>
     <definedName name="quads">vlookup!$B$2:$E$6</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'01long'!$J$16:$O$16</definedName>
     <definedName name="solver_adj" localSheetId="9" hidden="1">'02'!$C$10:$E$11</definedName>
     <definedName name="solver_adj" localSheetId="10" hidden="1">'02long'!$C$10:$E$11</definedName>
+    <definedName name="solver_adj" localSheetId="12" hidden="1">'03'!$C$10:$D$14</definedName>
+    <definedName name="solver_adj_ob" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_adj_ob" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_cha" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_cha" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_chc1" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_chc1" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_chc2" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_chc2" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_chc3" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_chn" localSheetId="9" hidden="1">4</definedName>
+    <definedName name="solver_chn" localSheetId="12" hidden="1">4</definedName>
+    <definedName name="solver_chp1" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_chp1" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_chp2" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_chp2" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_chp3" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_cht" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_cht" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_cir1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_cir1" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_cir2" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_cir2" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_cir3" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_con" localSheetId="9" hidden="1">" "</definedName>
+    <definedName name="solver_con" localSheetId="12" hidden="1">" "</definedName>
+    <definedName name="solver_con1" localSheetId="9" hidden="1">" "</definedName>
+    <definedName name="solver_con1" localSheetId="12" hidden="1">" "</definedName>
+    <definedName name="solver_con2" localSheetId="9" hidden="1">" "</definedName>
+    <definedName name="solver_con2" localSheetId="12" hidden="1">" "</definedName>
+    <definedName name="solver_con3" localSheetId="9" hidden="1">" "</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
+    <definedName name="solver_dia" localSheetId="9" hidden="1">5</definedName>
+    <definedName name="solver_dia" localSheetId="12" hidden="1">5</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_glb" localSheetId="9" hidden="1">-1E+30</definedName>
+    <definedName name="solver_glb" localSheetId="12" hidden="1">-1E+30</definedName>
+    <definedName name="solver_gub" localSheetId="9" hidden="1">1E+30</definedName>
+    <definedName name="solver_gub" localSheetId="12" hidden="1">1E+30</definedName>
+    <definedName name="solver_iao" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_iao" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_inc" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_inc" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_int" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_int" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_irs" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_irs" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_ism" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_ism" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs_ob1" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob1" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob2" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob2" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob3" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'01long'!$P$13:$P$14</definedName>
     <definedName name="solver_lhs1" localSheetId="9" hidden="1">'02'!$C$12:$E$12</definedName>
     <definedName name="solver_lhs1" localSheetId="10" hidden="1">'02long'!$C$12:$E$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="12" hidden="1">'03'!$C$16:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'01long'!$P$8:$P$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'02'!$F$10:$F$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'02'!$E$10</definedName>
     <definedName name="solver_lhs2" localSheetId="10" hidden="1">'02long'!$F$10:$F$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="12" hidden="1">'03'!$E$10:$E$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'02'!$F$10:$F$11</definedName>
     <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_log" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_log" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_mda" localSheetId="9" hidden="1">4</definedName>
+    <definedName name="solver_mda" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
+    <definedName name="solver_mod" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_mod" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
@@ -66,63 +147,135 @@
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_ntr" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_ntr" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_ntri" hidden="1">1000</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_obc" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_obc" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_obp" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_obp" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'01long'!$P$5</definedName>
     <definedName name="solver_opt" localSheetId="9" hidden="1">'02'!$F$5</definedName>
     <definedName name="solver_opt" localSheetId="10" hidden="1">'02long'!$F$5</definedName>
+    <definedName name="solver_opt" localSheetId="12" hidden="1">'03'!$E$3</definedName>
+    <definedName name="solver_opt_ob" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_opt_ob" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
+    <definedName name="solver_psi" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_psi" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rdp" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rdp" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_reco1" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_reco1" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_reco2" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_reco2" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_reco3" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rep" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rep" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'01long'!$R$13:$R$14</definedName>
     <definedName name="solver_rhs1" localSheetId="9" hidden="1">'02'!$C$14:$E$14</definedName>
     <definedName name="solver_rhs1" localSheetId="10" hidden="1">'02long'!$C$14:$E$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="12" hidden="1">'03'!$C$18:$D$18</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'01long'!$R$8:$R$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'02'!$H$10:$H$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'02'!$E$17</definedName>
     <definedName name="solver_rhs2" localSheetId="10" hidden="1">'02long'!$H$10:$H$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="12" hidden="1">'03'!$G$10:$G$14</definedName>
+    <definedName name="solver_rhs3" localSheetId="9" hidden="1">'02'!$H$10:$H$11</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_rsmp" hidden="1">2</definedName>
+    <definedName name="solver_rtr" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rtr" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_rxc1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rxc1" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_rxc2" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rxc2" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_rxc3" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rxv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rxv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_seed" hidden="1">0</definedName>
+    <definedName name="solver_sel" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_sel" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_slv" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_slv" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_slvu" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_slvu" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_ubigm" localSheetId="9" hidden="1">1000000</definedName>
+    <definedName name="solver_ubigm" localSheetId="12" hidden="1">1000000</definedName>
+    <definedName name="solver_umod" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_umod" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_urs" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_urs" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_userid" localSheetId="9" hidden="1">20876</definedName>
+    <definedName name="solver_userid" localSheetId="10" hidden="1">20876</definedName>
+    <definedName name="solver_userid" localSheetId="12" hidden="1">20876</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_var" localSheetId="9" hidden="1">" "</definedName>
+    <definedName name="solver_var" localSheetId="12" hidden="1">" "</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">17</definedName>
     <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="12" hidden="1">17</definedName>
+    <definedName name="solver_vir" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_vir" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_vol" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_vol" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_vst" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_vst" localSheetId="12" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="96">
   <si>
     <t>Challenge:</t>
   </si>
@@ -383,6 +536,51 @@
   </si>
   <si>
     <t>Shipping</t>
+  </si>
+  <si>
+    <t>Waco</t>
+  </si>
+  <si>
+    <t>Houston has 100 and ships to Abilene for $100 and Waco for $80.</t>
+  </si>
+  <si>
+    <t>Dallas has 80 and ships to Abilene for $60 and Waco for $90.</t>
+  </si>
+  <si>
+    <t>Austin has 60 and ships to Abilene for $50 and Waco for $70.</t>
+  </si>
+  <si>
+    <t>Both Abilene and Waco distribution centers ship to Omaha and Tulsa.</t>
+  </si>
+  <si>
+    <t>Abilene ships to Omaha for $90 and Tulsa for $100.</t>
+  </si>
+  <si>
+    <t>Waco ships to Omaha for $85 and Tulsa for $80.</t>
+  </si>
+  <si>
+    <t>Omaha needs 90 and Tulsa needs 150.</t>
+  </si>
+  <si>
+    <t>Use Solver to minimize shipping costs.</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Total Ship</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Long Form Distribution</t>
   </si>
 </sst>
 </file>
@@ -395,7 +593,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,6 +653,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -488,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -526,13 +731,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,6 +807,28 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -639,7 +875,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBD2489-9CBC-D444-970C-B36FDB11D794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -830,7 +1066,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4733A6-0538-4746-B906-5248E378BB4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1329,7 @@
               <a:ea typeface="FangSong" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Midland -  Azle    $30	</a:t>
+            <a:t>Midland -  Azle   $30	</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -1192,14 +1428,1319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441982</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27709" y="26239"/>
+          <a:ext cx="4554361" cy="2284378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Nachtfliegen enterprises is coming to West Texas and needs the most cost effective way to get their products (rubber bands for quadcopter motors) to new cities from their new distribution centers.  Help them decide how much to ship along each route to minimize shipping costs.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Houston has 100 and ships</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> to Abilene for $100 and Waco for $80.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dallas has 80 and ships to Abilene for $60 and Waco for $90.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Austin has 60 and ships to Abilene for $50 and Waco for $70.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Both Abilene and Waco distribution centers ship to Omaha and Tulsa.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abilene ships to Omaha for $90 and Tulsa for $100.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Waco ships to Omaha for $85 and Tulsa for $80.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Omaha needs 90 and Tulsa needs 150.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use Solver to minimize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> shipping costs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1981200" y="889000"/>
+          <a:ext cx="876300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1930400" y="965200"/>
+          <a:ext cx="952500" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="596900"/>
+          <a:ext cx="1028700" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1930400" y="1473200"/>
+          <a:ext cx="990600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993900" y="508000"/>
+          <a:ext cx="901700" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3517900" y="520700"/>
+          <a:ext cx="1295400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="1041400"/>
+          <a:ext cx="1219200" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3492500" y="711200"/>
+          <a:ext cx="1320800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="1460500"/>
+          <a:ext cx="1282700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="1155700"/>
+          <a:ext cx="889000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="635000" y="2851150"/>
+          <a:ext cx="901700" cy="250825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="584200" y="2927350"/>
+          <a:ext cx="977900" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="2540000"/>
+          <a:ext cx="1104900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="584200" y="3463925"/>
+          <a:ext cx="1016000" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>653438</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742338</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653438" y="3768992"/>
+          <a:ext cx="926641" cy="302428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2247900" y="2463800"/>
+          <a:ext cx="1968500" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298700" y="3013075"/>
+          <a:ext cx="1752600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2222500" y="2663825"/>
+          <a:ext cx="1993900" cy="688975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2235200" y="3451225"/>
+          <a:ext cx="1841500" cy="263525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="3127375"/>
+          <a:ext cx="914400" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3712555E-0DF0-EE41-A633-E8FA6FBAD359}" name="Table2" displayName="Table2" ref="B1:E6" totalsRowShown="0">
-  <autoFilter ref="B1:E6" xr:uid="{3AAEFB82-F5CB-094E-892B-C76C47651AA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B1:E6" totalsRowShown="0">
+  <autoFilter ref="B1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D03BA4BC-90D8-4D42-A588-42B78857EF6B}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{BD178E3C-9371-4B46-8DAF-B643DBA92544}" name="Quads"/>
-    <tableColumn id="3" xr3:uid="{9C5BA0C1-32CA-1949-89F5-98725EFCD533}" name="Motors" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7FFFF1D7-871A-F14E-BED8-AA78A6FF0905}" name="Battery" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quads"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Motors" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Battery" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1501,7 +3042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF7CFD-36EB-B946-8904-E54727B0DCE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1509,7 +3050,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1658,15 +3199,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7BEC82-E37E-6145-8880-6330BE427D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1753,7 +3294,7 @@
       </c>
       <c r="F5" s="31">
         <f>SUMPRODUCT(C5:E6,C10:E11)</f>
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -1841,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="30">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F10" s="28">
         <f>SUM(C10:E10)</f>
@@ -1870,10 +3411,10 @@
         <v>60</v>
       </c>
       <c r="D11" s="30">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E11" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="28">
         <f>SUM(C11:E11)</f>
@@ -1965,9 +3506,15 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1977,10 +3524,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32">
+        <v>80</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1990,10 +3541,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24">
+        <v>68</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -2006,15 +3561,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED8581F-6362-4840-BE8C-AB9CF9EEA1E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -2353,14 +3908,579 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="36">
+        <v>100</v>
+      </c>
+      <c r="D3" s="36">
+        <v>80</v>
+      </c>
+      <c r="E3" s="41">
+        <f>SUMPRODUCT(C3:D7,C10:D14)</f>
+        <v>36900</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="36">
+        <v>60</v>
+      </c>
+      <c r="D4" s="36">
+        <v>90</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="37">
+        <v>50</v>
+      </c>
+      <c r="D5" s="37">
+        <v>70</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="36">
+        <v>90</v>
+      </c>
+      <c r="D6" s="36">
+        <v>85</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="36">
+        <v>100</v>
+      </c>
+      <c r="D7" s="36">
+        <v>80</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="43">
+        <v>0</v>
+      </c>
+      <c r="D10" s="43">
+        <v>100</v>
+      </c>
+      <c r="E10" s="45">
+        <f>SUM(C10:D10)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="43">
+        <v>80</v>
+      </c>
+      <c r="D11" s="43">
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>SUM(C11:D11)</f>
+        <v>80</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="44">
+        <v>10</v>
+      </c>
+      <c r="D12" s="44">
+        <v>50</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" ref="E12:E14" si="0">SUM(C12:D12)</f>
+        <v>60</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <f>SUM(G10:G12)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="43">
+        <v>90</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <v>150</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
+      </c>
+      <c r="H14">
+        <f>SUM(G13:G14)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="46">
+        <f>SUM(C10:C12)</f>
+        <v>90</v>
+      </c>
+      <c r="D16" s="46">
+        <f>SUM(D10:D12)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="46">
+        <f>SUM(C13:C14)</f>
+        <v>90</v>
+      </c>
+      <c r="D18" s="46">
+        <f>SUM(D13:D14)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="36">
+        <v>100</v>
+      </c>
+      <c r="D4" s="36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="36">
+        <v>60</v>
+      </c>
+      <c r="D5" s="36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="37">
+        <v>50</v>
+      </c>
+      <c r="D6" s="37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="36">
+        <v>90</v>
+      </c>
+      <c r="D7" s="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="36">
+        <v>100</v>
+      </c>
+      <c r="D8" s="36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2</v>
+      </c>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="39">
+        <v>3</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="40">
+        <f>SUM(C11:C13)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="40">
+        <f>SUM(D11:D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="40">
+        <f>SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <f>SUM(D14:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD44AB-9FF3-8748-A8BE-D9A144FAA072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -2374,7 +4494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FB4494-BB38-7944-8CA2-6884F9F40CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -2382,7 +4502,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
@@ -2626,7 +4746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA0188-A464-594F-94E2-E79D7C0E9442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -2634,7 +4754,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
@@ -2902,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979AA9DA-B635-8341-8244-034A1E2B6982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2910,7 +5030,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
@@ -3106,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA451F5-0288-744E-80E9-140960FD9558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -3114,7 +5234,7 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
@@ -3358,7 +5478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ED7C8B-D9C9-6447-BE5B-8CCD4076A5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -3366,7 +5486,7 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
@@ -3834,7 +5954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C354B7E-590A-8548-B457-7EB6020E920E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3842,7 +5962,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
@@ -4015,15 +6135,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAE2212-413B-904F-9B44-ED1EA2CA7944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">

--- a/01_Linear/Nachtfliegen_04_Transportation.xlsx
+++ b/01_Linear/Nachtfliegen_04_Transportation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA5DFA-77C8-534D-9933-936F31F6014C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12CC4AD-9C20-7B4A-B3EE-E1D8F64B9928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30220" windowHeight="18260" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="460" windowWidth="24560" windowHeight="18980" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -3203,8 +3203,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4273,7 +4273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6139,7 +6139,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+    <sheetView zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
